--- a/NordreFollo/data/dummyData.xlsx
+++ b/NordreFollo/data/dummyData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\NordreFollo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79A2B4-9C5A-4010-A9C5-EFBA989F7814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D07C94-E2DA-41C0-9180-E0B5ACE3DC4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" xr2:uid="{861362E4-6F6A-4676-9474-C4FF59E2E49D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{861362E4-6F6A-4676-9474-C4FF59E2E49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="spots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>wp</t>
   </si>
@@ -48,39 +49,6 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>Indicator 1</t>
-  </si>
-  <si>
-    <t>Indicator 2</t>
-  </si>
-  <si>
-    <t>Indicator 3</t>
-  </si>
-  <si>
-    <t>Indicator 4</t>
-  </si>
-  <si>
-    <t>Indicator 5</t>
-  </si>
-  <si>
-    <t>Indicator 6</t>
-  </si>
-  <si>
-    <t>Indicator 7</t>
-  </si>
-  <si>
-    <t>Indicator 8</t>
-  </si>
-  <si>
-    <t>Indicator 9</t>
-  </si>
-  <si>
-    <t>Indicator 10</t>
-  </si>
-  <si>
-    <t>Indicator 11</t>
-  </si>
-  <si>
     <t>Remotely sensed</t>
   </si>
   <si>
@@ -91,13 +59,19 @@
   </si>
   <si>
     <t>Citizen Science</t>
+  </si>
+  <si>
+    <t>spot_type</t>
+  </si>
+  <si>
+    <t>spot_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +103,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -150,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,11 +159,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -199,6 +196,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19193E21-4A5C-45CA-8324-9F906FB09F33}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +571,10 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -558,10 +585,10 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -570,129 +597,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
         <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
         <v>5</v>
       </c>
     </row>
@@ -701,4 +686,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0BCFAF-42B2-42FB-8629-A702BB957ECF}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NordreFollo/data/dummyData.xlsx
+++ b/NordreFollo/data/dummyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Documents\Github\IBECA_NINA\NordreFollo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D07C94-E2DA-41C0-9180-E0B5ACE3DC4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48FB51-DB21-41E5-95E2-B3AA06C5F9FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{861362E4-6F6A-4676-9474-C4FF59E2E49D}"/>
+    <workbookView xWindow="5610" yWindow="2700" windowWidth="21600" windowHeight="13125" activeTab="1" xr2:uid="{861362E4-6F6A-4676-9474-C4FF59E2E49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>wp</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>spot_date</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -225,6 +228,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,16 +705,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0BCFAF-42B2-42FB-8629-A702BB957ECF}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -718,8 +733,8 @@
       <c r="A2" s="11">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -729,8 +744,8 @@
       <c r="A3" s="13">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -740,8 +755,8 @@
       <c r="A4" s="11">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -751,8 +766,8 @@
       <c r="A5" s="13">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -762,8 +777,8 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
@@ -773,8 +788,8 @@
       <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -784,8 +799,8 @@
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="17">
         <v>3</v>
@@ -795,15 +810,56 @@
       <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
